--- a/sample_resources/transactions_in_categories_example.xlsx
+++ b/sample_resources/transactions_in_categories_example.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/narek/projects/own_projects/Personal_Finance/personalfinance copy/data/cleaned/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/narek/projects/own_projects/Personal_Finance/personalfinance_class/sample_resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358DC5C7-61C9-2D48-9154-7C838B83B0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACEDE63-05E3-FB4C-A0DC-6591E0BD8D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="30240" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="134">
   <si>
     <t>DATE</t>
   </si>
@@ -37,24 +50,12 @@
     <t>DESCRIPTION</t>
   </si>
   <si>
-    <t>YEAR_MONTH</t>
-  </si>
-  <si>
-    <t>YEAR_WEEK</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
     <t>SOURCE</t>
   </si>
   <si>
     <t>2023001Checkings1</t>
   </si>
   <si>
-    <t>2023-10-27 00:00:00</t>
-  </si>
-  <si>
     <t>STARTING_BALANCE</t>
   </si>
   <si>
@@ -64,15 +65,6 @@
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. STARTING_BALANCE Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
   </si>
   <si>
-    <t>2023-10</t>
-  </si>
-  <si>
-    <t>2023W43</t>
-  </si>
-  <si>
-    <t>INCOMING</t>
-  </si>
-  <si>
     <t>Checkings</t>
   </si>
   <si>
@@ -85,15 +77,9 @@
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. TO BE19 0000 0000 0000 Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
   </si>
   <si>
-    <t>OUTGOING</t>
-  </si>
-  <si>
     <t>2023002Checkings1</t>
   </si>
   <si>
-    <t>2023-10-28 00:00:00</t>
-  </si>
-  <si>
     <t>GIFT</t>
   </si>
   <si>
@@ -103,9 +89,6 @@
     <t>2023003Checkings1</t>
   </si>
   <si>
-    <t>2023-10-29 00:00:00</t>
-  </si>
-  <si>
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. ONLINE_STORE_B Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
   </si>
   <si>
@@ -121,27 +104,15 @@
     <t>2023005Checkings1</t>
   </si>
   <si>
-    <t>2023-10-31 00:00:00</t>
-  </si>
-  <si>
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. FROM BE19 0000 0000 0000 Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
   </si>
   <si>
-    <t>2023W44</t>
-  </si>
-  <si>
     <t>2023005Checkings2</t>
   </si>
   <si>
-    <t>2023-10-30 00:00:00</t>
-  </si>
-  <si>
     <t>2023006Checkings1</t>
   </si>
   <si>
-    <t>2023-11-02 00:00:00</t>
-  </si>
-  <si>
     <t>COFFEE</t>
   </si>
   <si>
@@ -151,15 +122,9 @@
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. COFFEE_HOUSE Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
   </si>
   <si>
-    <t>2023-11</t>
-  </si>
-  <si>
     <t>2023008Checkings1</t>
   </si>
   <si>
-    <t>2023-11-04 00:00:00</t>
-  </si>
-  <si>
     <t>2023008Checkings2</t>
   </si>
   <si>
@@ -190,12 +155,6 @@
     <t>2023010Checkings1</t>
   </si>
   <si>
-    <t>2023-11-06 00:00:00</t>
-  </si>
-  <si>
-    <t>2023W45</t>
-  </si>
-  <si>
     <t>2023010Checkings2</t>
   </si>
   <si>
@@ -220,9 +179,6 @@
     <t>2023012Checkings1</t>
   </si>
   <si>
-    <t>2023-11-08 00:00:00</t>
-  </si>
-  <si>
     <t>2023013Checkings1</t>
   </si>
   <si>
@@ -238,33 +194,21 @@
     <t>2023014Checkings1</t>
   </si>
   <si>
-    <t>2023-11-10 00:00:00</t>
-  </si>
-  <si>
     <t>2023014Checkings2</t>
   </si>
   <si>
-    <t>2023-11-09 00:00:00</t>
-  </si>
-  <si>
     <t>2023014Checkings3</t>
   </si>
   <si>
     <t>2023020Checkings1</t>
   </si>
   <si>
-    <t>2023-11-16 00:00:00</t>
-  </si>
-  <si>
     <t>CHARITY</t>
   </si>
   <si>
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. CHARITY_EVENT Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
   </si>
   <si>
-    <t>2023W46</t>
-  </si>
-  <si>
     <t>2023020Checkings2</t>
   </si>
   <si>
@@ -274,18 +218,12 @@
     <t>2023021Checkings1</t>
   </si>
   <si>
-    <t>2023-11-17 00:00:00</t>
-  </si>
-  <si>
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. CLOTHING-STORE-B Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
   </si>
   <si>
     <t>2023022Checkings1</t>
   </si>
   <si>
-    <t>2023-11-18 00:00:00</t>
-  </si>
-  <si>
     <t>BARS</t>
   </si>
   <si>
@@ -304,48 +242,30 @@
     <t>2023025Checkings1</t>
   </si>
   <si>
-    <t>2023-11-21 00:00:00</t>
-  </si>
-  <si>
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. REPAYMENT-FRIEND-RESTAURANT Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
   </si>
   <si>
-    <t>2023W47</t>
-  </si>
-  <si>
     <t>2023031Checkings1</t>
   </si>
   <si>
-    <t>2023-11-27 00:00:00</t>
-  </si>
-  <si>
     <t>WAGE</t>
   </si>
   <si>
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. WAGE Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
   </si>
   <si>
-    <t>2023W48</t>
-  </si>
-  <si>
     <t>2023031Checkings2</t>
   </si>
   <si>
     <t>2023036Checkings1</t>
   </si>
   <si>
-    <t>2023-12-03 00:00:00</t>
-  </si>
-  <si>
     <t>THEATER</t>
   </si>
   <si>
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. THEATER Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
   </si>
   <si>
-    <t>2023-12</t>
-  </si>
-  <si>
     <t>2023037Checkings1</t>
   </si>
   <si>
@@ -361,21 +281,12 @@
     <t>2023041Checkings1</t>
   </si>
   <si>
-    <t>2023-12-07 00:00:00</t>
-  </si>
-  <si>
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. CLUB-MEMBERSHIP Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
   </si>
   <si>
-    <t>2023W49</t>
-  </si>
-  <si>
     <t>2023041Checkings2</t>
   </si>
   <si>
-    <t>2023-12-08 00:00:00</t>
-  </si>
-  <si>
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. REPAYMENT-TICKET Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
   </si>
   <si>
@@ -388,24 +299,15 @@
     <t>2023043Checkings1</t>
   </si>
   <si>
-    <t>2023-12-10 00:00:00</t>
-  </si>
-  <si>
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. RESTAURANT-B Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
   </si>
   <si>
     <t>2023044Checkings1</t>
   </si>
   <si>
-    <t>2023-12-11 00:00:00</t>
-  </si>
-  <si>
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. REFUND CLOTHING-STORE Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
   </si>
   <si>
-    <t>2023W50</t>
-  </si>
-  <si>
     <t>2023044Checkings2</t>
   </si>
   <si>
@@ -433,24 +335,15 @@
     <t>2023006Savings1</t>
   </si>
   <si>
-    <t>2023-12-17 00:00:00</t>
-  </si>
-  <si>
     <t>2023008Savings1</t>
   </si>
   <si>
-    <t>2023-12-29 00:00:00</t>
-  </si>
-  <si>
     <t>INTREST</t>
   </si>
   <si>
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis. INTREST Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc iaculis.</t>
   </si>
   <si>
-    <t>2023W52</t>
-  </si>
-  <si>
     <t>20231121Cash1</t>
   </si>
   <si>
@@ -463,9 +356,6 @@
     <t>20231202Cash1</t>
   </si>
   <si>
-    <t>2023-12-02 00:00:00</t>
-  </si>
-  <si>
     <t>20231121Checkings1</t>
   </si>
   <si>
@@ -473,12 +363,87 @@
   </si>
   <si>
     <t>TRANSACTION_ID</t>
+  </si>
+  <si>
+    <t>2023-10-29</t>
+  </si>
+  <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
+    <t>2023-10-28</t>
+  </si>
+  <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
+    <t>2023-10-30</t>
+  </si>
+  <si>
+    <t>2023-11-02</t>
+  </si>
+  <si>
+    <t>2023-11-04</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
+    <t>2023-11-17</t>
+  </si>
+  <si>
+    <t>2023-11-18</t>
+  </si>
+  <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
+    <t>2023-11-27</t>
+  </si>
+  <si>
+    <t>2023-12-03</t>
+  </si>
+  <si>
+    <t>2023-12-07</t>
+  </si>
+  <si>
+    <t>2023-12-08</t>
+  </si>
+  <si>
+    <t>2023-12-10</t>
+  </si>
+  <si>
+    <t>2023-12-11</t>
+  </si>
+  <si>
+    <t>2023-12-17</t>
+  </si>
+  <si>
+    <t>2023-12-29</t>
+  </si>
+  <si>
+    <t>2023-12-02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,9 +494,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -836,27 +805,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="134.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -874,1518 +843,1086 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="B2" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="C2">
         <v>4500</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
+      <c r="B3" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="C3">
         <v>-4000</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
+      <c r="B4" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="C4">
         <v>-10</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
+      <c r="B5" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="C5">
         <v>-300</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="C6">
         <v>-80</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="C7">
         <v>250</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C8">
         <v>-100</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="C9">
         <v>-10</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C10">
         <v>500</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C11">
         <v>-20</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C12">
         <v>-30</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
+      <c r="B13" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C13">
         <v>-10</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C14">
         <v>-50.5</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
+        <v>39</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="C15">
         <v>-20</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="C16">
         <v>-50</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="C17">
         <v>-10</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
+        <v>47</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="C18">
         <v>-10</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
+        <v>48</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="C19">
         <v>-5</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
+        <v>52</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C20">
         <v>-5</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" t="s">
-        <v>74</v>
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="C21">
         <v>-10</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
+        <v>54</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C22">
         <v>-10</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
+        <v>55</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="C23">
         <v>-30</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" t="s">
-        <v>77</v>
+        <v>58</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="C24">
         <v>-20</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" t="s">
-        <v>80</v>
-      </c>
-      <c r="I24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" t="s">
-        <v>84</v>
+        <v>60</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="C25">
         <v>-300</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" t="s">
-        <v>80</v>
-      </c>
-      <c r="I25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" t="s">
-        <v>87</v>
+        <v>62</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C26">
         <v>-20</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" t="s">
-        <v>80</v>
-      </c>
-      <c r="I26" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" t="s">
-        <v>87</v>
+        <v>66</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C27">
         <v>-60</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" t="s">
-        <v>80</v>
-      </c>
-      <c r="I27" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" t="s">
-        <v>94</v>
+        <v>68</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="C28">
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" t="s">
-        <v>96</v>
-      </c>
-      <c r="I28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" t="s">
-        <v>98</v>
+        <v>70</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="C29">
         <v>1500</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" t="s">
-        <v>101</v>
-      </c>
-      <c r="I29" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" t="s">
-        <v>98</v>
+        <v>73</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="C30">
         <v>-1500</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" t="s">
-        <v>101</v>
-      </c>
-      <c r="I30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" t="s">
-        <v>104</v>
+        <v>74</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C31">
         <v>-30</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="F31" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s">
-        <v>107</v>
-      </c>
-      <c r="H31" t="s">
-        <v>101</v>
-      </c>
-      <c r="I31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" t="s">
-        <v>104</v>
+        <v>77</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C32">
         <v>-100</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s">
-        <v>107</v>
-      </c>
-      <c r="H32" t="s">
-        <v>101</v>
-      </c>
-      <c r="I32" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B33" t="s">
-        <v>104</v>
+        <v>79</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C33">
         <v>-20</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="E33" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="F33" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s">
-        <v>107</v>
-      </c>
-      <c r="H33" t="s">
-        <v>101</v>
-      </c>
-      <c r="I33" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" t="s">
-        <v>104</v>
+        <v>80</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C34">
         <v>-20</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="F34" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s">
-        <v>107</v>
-      </c>
-      <c r="H34" t="s">
-        <v>101</v>
-      </c>
-      <c r="I34" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" t="s">
-        <v>113</v>
+        <v>81</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="C35">
         <v>-10</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s">
-        <v>107</v>
-      </c>
-      <c r="H35" t="s">
-        <v>115</v>
-      </c>
-      <c r="I35" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" t="s">
-        <v>117</v>
+        <v>83</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C36">
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s">
-        <v>107</v>
-      </c>
-      <c r="H36" t="s">
-        <v>115</v>
-      </c>
-      <c r="I36" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37" t="s">
-        <v>117</v>
+        <v>85</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C37">
         <v>-30</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s">
-        <v>107</v>
-      </c>
-      <c r="H37" t="s">
-        <v>115</v>
-      </c>
-      <c r="I37" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>121</v>
-      </c>
-      <c r="B38" t="s">
-        <v>122</v>
+        <v>87</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="C38">
         <v>-50</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F38" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s">
-        <v>107</v>
-      </c>
-      <c r="H38" t="s">
-        <v>115</v>
-      </c>
-      <c r="I38" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B39" t="s">
-        <v>125</v>
+        <v>89</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="C39">
         <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s">
-        <v>107</v>
-      </c>
-      <c r="H39" t="s">
-        <v>127</v>
-      </c>
-      <c r="I39" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40" t="s">
-        <v>125</v>
+        <v>91</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="C40">
         <v>270</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="G40" t="s">
-        <v>107</v>
-      </c>
-      <c r="H40" t="s">
-        <v>127</v>
-      </c>
-      <c r="I40" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
+        <v>93</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="C41">
         <v>1000</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" t="s">
-        <v>16</v>
-      </c>
-      <c r="J41" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>133</v>
-      </c>
-      <c r="B42" t="s">
-        <v>45</v>
+        <v>96</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C42">
         <v>-500</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42" t="s">
-        <v>35</v>
-      </c>
-      <c r="I42" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>135</v>
-      </c>
-      <c r="B43" t="s">
         <v>98</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="C43">
         <v>200</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="G43" t="s">
-        <v>43</v>
-      </c>
-      <c r="H43" t="s">
-        <v>101</v>
-      </c>
-      <c r="I43" t="s">
-        <v>16</v>
-      </c>
-      <c r="J43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>136</v>
-      </c>
-      <c r="B44" t="s">
-        <v>137</v>
       </c>
       <c r="C44">
         <v>-200</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="G44" t="s">
-        <v>107</v>
-      </c>
-      <c r="H44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I44" t="s">
-        <v>21</v>
-      </c>
-      <c r="J44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" t="s">
-        <v>139</v>
       </c>
       <c r="C45">
         <v>5.5</v>
       </c>
       <c r="D45" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="G45" t="s">
-        <v>107</v>
-      </c>
-      <c r="H45" t="s">
-        <v>142</v>
-      </c>
-      <c r="I45" t="s">
-        <v>16</v>
-      </c>
-      <c r="J45" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>143</v>
-      </c>
-      <c r="B46" t="s">
-        <v>94</v>
+        <v>103</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="C46">
         <v>100</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46" t="s">
-        <v>96</v>
-      </c>
-      <c r="I46" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>148</v>
-      </c>
-      <c r="B47" t="s">
-        <v>94</v>
+        <v>107</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="C47">
         <v>-100</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
-      </c>
-      <c r="H47" t="s">
-        <v>96</v>
-      </c>
-      <c r="I47" t="s">
-        <v>21</v>
-      </c>
-      <c r="J47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>146</v>
-      </c>
-      <c r="B48" t="s">
-        <v>147</v>
+        <v>106</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="C48">
         <v>-50.5</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>107</v>
-      </c>
-      <c r="H48" t="s">
-        <v>101</v>
-      </c>
-      <c r="I48" t="s">
-        <v>21</v>
-      </c>
-      <c r="J48" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
